--- a/dico_données.xlsx
+++ b/dico_données.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\80010-92-01\Documents\File ROUGE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\80010-92-01\Documents\filerouge\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="117">
   <si>
     <t>nom</t>
   </si>
@@ -245,12 +245,6 @@
     <t>panier/ n° référence</t>
   </si>
   <si>
-    <t>pan_qte</t>
-  </si>
-  <si>
-    <t>panier/ quantité produit</t>
-  </si>
-  <si>
     <t>cont_id</t>
   </si>
   <si>
@@ -287,48 +281,12 @@
     <t>contact commercial/ nom</t>
   </si>
   <si>
-    <t>pan_stot</t>
-  </si>
-  <si>
-    <t>panier/ sous total</t>
-  </si>
-  <si>
-    <t>pan_tot</t>
-  </si>
-  <si>
-    <t>panier/ total</t>
-  </si>
-  <si>
-    <t>prix produit * qte</t>
-  </si>
-  <si>
-    <t>somme des sous totaux</t>
-  </si>
-  <si>
-    <t>commande/ n° référence</t>
-  </si>
-  <si>
     <t>com_date</t>
   </si>
   <si>
-    <t>ven_id</t>
-  </si>
-  <si>
-    <t>vente/ n° référence</t>
-  </si>
-  <si>
     <t>commande/ date validation commande par client</t>
   </si>
   <si>
-    <t>ven_ dat_paie</t>
-  </si>
-  <si>
-    <t>vente/ date de paiement</t>
-  </si>
-  <si>
-    <t>contraintes/règles calcil</t>
-  </si>
-  <si>
     <t>cli-delai</t>
   </si>
   <si>
@@ -353,12 +311,6 @@
     <t>contact commercial/ mdp</t>
   </si>
   <si>
-    <t>type de paiement</t>
-  </si>
-  <si>
-    <t>ven_type _paie</t>
-  </si>
-  <si>
     <t>cli_login</t>
   </si>
   <si>
@@ -369,6 +321,60 @@
   </si>
   <si>
     <t>hash</t>
+  </si>
+  <si>
+    <t>contraintes</t>
+  </si>
+  <si>
+    <t>règles calcul</t>
+  </si>
+  <si>
+    <t>pan_date</t>
+  </si>
+  <si>
+    <t>com_pan_id</t>
+  </si>
+  <si>
+    <t>com_pro_id</t>
+  </si>
+  <si>
+    <t>com_qte</t>
+  </si>
+  <si>
+    <t>com_stot</t>
+  </si>
+  <si>
+    <t>commande article/ n° référence de la ligne</t>
+  </si>
+  <si>
+    <t>commande article/  référence panier</t>
+  </si>
+  <si>
+    <t>commande article/ référence article</t>
+  </si>
+  <si>
+    <t xml:space="preserve">commande article/ quantité </t>
+  </si>
+  <si>
+    <t>commande article/ sous total ligne</t>
+  </si>
+  <si>
+    <t>com_total</t>
+  </si>
+  <si>
+    <t>commande article/ total commande</t>
+  </si>
+  <si>
+    <t>panier/ date de validation par client</t>
+  </si>
+  <si>
+    <t>com_qte*pro_prix</t>
+  </si>
+  <si>
+    <t>pan_cli_id</t>
+  </si>
+  <si>
+    <t>panier/ ref client</t>
   </si>
 </sst>
 </file>
@@ -689,8 +695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -699,9 +705,10 @@
     <col min="2" max="2" width="58.42578125" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" customWidth="1"/>
     <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="5" max="5" width="51.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -712,10 +719,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -729,7 +739,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -740,7 +750,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -751,7 +761,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>70</v>
       </c>
@@ -765,7 +775,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -776,7 +786,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -790,7 +800,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -804,7 +814,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -818,7 +828,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -832,7 +842,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -846,7 +856,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -857,7 +867,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -868,7 +878,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -906,7 +916,7 @@
         <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="C19" t="s">
         <v>8</v>
@@ -994,10 +1004,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="B28" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C28" t="s">
         <v>8</v>
@@ -1005,13 +1015,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="B29" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="C29" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1027,10 +1037,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B31" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="C31" t="s">
         <v>3</v>
@@ -1060,10 +1070,10 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B35" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C35" t="s">
         <v>3</v>
@@ -1074,10 +1084,10 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B36" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C36" t="s">
         <v>8</v>
@@ -1085,10 +1095,10 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B37" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C37" t="s">
         <v>8</v>
@@ -1096,10 +1106,10 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B38" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C38" t="s">
         <v>8</v>
@@ -1108,10 +1118,10 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B39" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C39" t="s">
         <v>8</v>
@@ -1119,10 +1129,10 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B40" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C40" t="s">
         <v>8</v>
@@ -1130,10 +1140,10 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="B41" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C41" t="s">
         <v>8</v>
@@ -1141,13 +1151,13 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="B42" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="C42" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -1200,104 +1210,106 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="B49" t="s">
-        <v>74</v>
-      </c>
-      <c r="C49" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="B50" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="C50" t="s">
         <v>60</v>
       </c>
-      <c r="D50" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>89</v>
-      </c>
-      <c r="B51" t="s">
-        <v>90</v>
-      </c>
-      <c r="C51" t="s">
-        <v>60</v>
-      </c>
-      <c r="D51" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>63</v>
+      </c>
+      <c r="B52" t="s">
+        <v>106</v>
+      </c>
+      <c r="C52" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="B53" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="C53" t="s">
         <v>3</v>
       </c>
-      <c r="D53" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B54" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="C54" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>104</v>
+      </c>
+      <c r="B55" t="s">
+        <v>109</v>
+      </c>
+      <c r="C55" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>105</v>
+      </c>
+      <c r="B56" t="s">
+        <v>110</v>
+      </c>
+      <c r="C56" t="s">
+        <v>60</v>
+      </c>
+      <c r="E56" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>111</v>
+      </c>
+      <c r="B57" t="s">
+        <v>112</v>
+      </c>
+      <c r="C57" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>85</v>
+      </c>
+      <c r="B58" t="s">
+        <v>86</v>
+      </c>
+      <c r="C58" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>95</v>
-      </c>
-      <c r="B56" t="s">
-        <v>96</v>
-      </c>
-      <c r="C56" t="s">
-        <v>3</v>
-      </c>
-      <c r="D56" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>98</v>
-      </c>
-      <c r="B57" t="s">
-        <v>99</v>
-      </c>
-      <c r="C57" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>110</v>
-      </c>
-      <c r="B58" t="s">
-        <v>109</v>
-      </c>
-      <c r="C58" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
